--- a/Documentation/Functional and non-functional requirements.xlsx
+++ b/Documentation/Functional and non-functional requirements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOURI\Documents\GitHub\Hardware_Simulator\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB58A36-A71D-46E8-8B5C-566352BB2420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4687B260-3BD4-4846-AE43-26D8F4CC678D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5DDB8165-9225-4BE4-BF8F-8DAAE4A507E0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Non-functional</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Design iteration</t>
   </si>
   <si>
-    <t>The emulated cell has a voltage range of … to … V and a current range of … to … A</t>
-  </si>
-  <si>
     <t>The battery emulator hardware uses a microcontroller</t>
   </si>
   <si>
@@ -99,13 +96,85 @@
   </si>
   <si>
     <t>The temperature is emulated by using a digital potentiometer</t>
+  </si>
+  <si>
+    <t>The maximum voltage of the battery pack emulator is 80V</t>
+  </si>
+  <si>
+    <t>The first iteration of the battery pack emulator consists of two  emulated Li-ion cells</t>
+  </si>
+  <si>
+    <t>A linear regulator is used to generate the specified voltages (see 5.1)</t>
+  </si>
+  <si>
+    <t>The emulated battery pack has an output which indicates the temperature relative to the output voltage</t>
+  </si>
+  <si>
+    <t>The emulated temperature range is -40 to 80 C</t>
+  </si>
+  <si>
+    <t>The emulated cell has a voltage range of 2.48 to 5.04 V</t>
+  </si>
+  <si>
+    <t>The load emulator is able to handle the battery pack voltage specified in 1.1</t>
+  </si>
+  <si>
+    <t>The load emulator is able to handle the battery pack power specified in 1.2</t>
+  </si>
+  <si>
+    <t>The emulated cell has a peak sourcing current of 12A</t>
+  </si>
+  <si>
+    <t>The emulated cell has a continuous sourcing current of 100mA</t>
+  </si>
+  <si>
+    <t>The emulated cell is able to deliver current (see 5.2 and 5.3)</t>
+  </si>
+  <si>
+    <t>The emulated cell has a peak sinking current of 12A</t>
+  </si>
+  <si>
+    <t>The emulated cell has a continuous sinking current of 100mA</t>
+  </si>
+  <si>
+    <t>The emulated cell is able to sink current (see 5.4 and 5.5)</t>
+  </si>
+  <si>
+    <t>The temperature of the electronics should be less than 25 C</t>
+  </si>
+  <si>
+    <t>The input of the battery pack emulator has reverse polarity protection</t>
+  </si>
+  <si>
+    <t>The input of the battery pack emulator and load emulator have over current protection</t>
+  </si>
+  <si>
+    <t>The load emulator can draw a current following a setpoint voltage which is generated by a microcontroller</t>
+  </si>
+  <si>
+    <t>The battery pack emulator has a continuous power of 112W (see 10.1)</t>
+  </si>
+  <si>
+    <t>The battery pack emulator has a peak power of 13.44kW (see 10.1)</t>
+  </si>
+  <si>
+    <t>The emulated cell has a peak power of 60W</t>
+  </si>
+  <si>
+    <t>The emulated cell has a continuous power of 0.5W</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>The battery pack emulator and load emulator are safe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,16 +182,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -130,45 +219,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -179,26 +342,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B42612D-B43B-4E5E-85DD-11D75B19B8DA}" name="Tabel1" displayName="Tabel1" ref="A1:E14" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:E14" xr:uid="{4B42612D-B43B-4E5E-85DD-11D75B19B8DA}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{21D5DE9C-2B1A-429D-84E3-3CF042A27FD2}" name="NF ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{0FE10591-2E4C-4444-9EE9-574B611AD019}" name="Non-functional" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{F290F8EA-C8B2-4D56-ABBB-910AC1186AA2}" name="Design iteration" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{F40E61BD-CC37-4860-8A08-305EDB24F7C3}" name="F ID" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{621FCA13-BE8B-41FB-BC63-5AE4338B5B5F}" name="Functional" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,254 +641,430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B4B788-96D1-4E41-AA9B-0355902691E9}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="1">
         <v>1.2</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="16" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="1">
         <v>2.1</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="E5" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="1">
         <v>3.1</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="E6" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D9" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E9" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>6</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>7</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="24" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>9</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="14">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
         <v>10</v>
       </c>
-      <c r="C12" s="2">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
+      <c r="B27" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C10:C16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>